--- a/uploads/Marketing and Treasury Monitoring Issues Exploitation Phase stage 1.xlsx
+++ b/uploads/Marketing and Treasury Monitoring Issues Exploitation Phase stage 1.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="12240" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15195" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -126,9 +126,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
+    <t>Conditions Precedent to be satisfied</t>
+  </si>
+  <si>
+    <t>Required action or operation (what need to be done)</t>
+  </si>
+  <si>
+    <t>Date for compliance (timeframe, deadline)</t>
+  </si>
+  <si>
+    <t>Party action accountable for compliance</t>
+  </si>
+  <si>
+    <t>Person in charge</t>
+  </si>
+  <si>
     <t>Due date for action</t>
   </si>
   <si>
+    <t>State authority accountable for compliance</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -150,25 +168,37 @@
     <t>State</t>
   </si>
   <si>
+    <t>During the Term of both Agreements</t>
+  </si>
+  <si>
+    <t>Cam Iron/ Project Companies/ State</t>
+  </si>
+  <si>
+    <t>Ministry of Finances / Ministry of Mines</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>Conditions Precedent to be satisfied</t>
-  </si>
-  <si>
-    <t>Required action or operation (what need to be done)</t>
-  </si>
-  <si>
-    <t>Date for compliance (timeframe, deadline)</t>
-  </si>
-  <si>
-    <t>Party action accountable for compliance</t>
-  </si>
-  <si>
-    <t>Person in charge</t>
-  </si>
-  <si>
-    <t>State authority accountable for compliance</t>
+    <t>Marketing Agreement / Monitoring Agreement - Marketing</t>
+  </si>
+  <si>
+    <t>The State may terminate all or any part of the Project Agreements and revoke all permits, authorisations and approvals of Cam Iron and the Project Companies, and shall draw upon any Bank Guarantee, surety or other security provided under any Project Agreement, or otherwise collect compensation from Cam Iron or the applicable Project Company to indemnify it for any actual or reasonably expected Losses resulting from such Permit Withdrawal Breach / Terminate the Exploitation Permit (article 50.5.a)</t>
+  </si>
+  <si>
+    <t>During the term of the Offtake Agreements</t>
+  </si>
+  <si>
+    <t>Cam Iron / Marketing Company</t>
+  </si>
+  <si>
+    <t>Convention</t>
+  </si>
+  <si>
+    <t>Offtake Agreement</t>
+  </si>
+  <si>
+    <t>Treasury Agreement / Monitoring Agreement -Treasury</t>
   </si>
   <si>
     <r>
@@ -176,7 +206,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -196,7 +225,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -216,27 +244,11 @@
     </r>
   </si>
   <si>
-    <t>During the Term of both Agreements</t>
-  </si>
-  <si>
-    <t>Cam Iron/ Project Companies/ State</t>
-  </si>
-  <si>
-    <t>Ministry of Finances / Ministry of Mines</t>
-  </si>
-  <si>
-    <t>Marketing Agreement / Monitoring Agreement - Marketing</t>
-  </si>
-  <si>
-    <t>The State may terminate all or any part of the Project Agreements and revoke all permits, authorisations and approvals of Cam Iron and the Project Companies, and shall draw upon any Bank Guarantee, surety or other security provided under any Project Agreement, or otherwise collect compensation from Cam Iron or the applicable Project Company to indemnify it for any actual or reasonably expected Losses resulting from such Permit Withdrawal Breach / Terminate the Exploitation Permit (article 50.5.a)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Comply with the provisions of the </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -256,24 +268,11 @@
     </r>
   </si>
   <si>
-    <t>During the term of the Offtake Agreements</t>
-  </si>
-  <si>
-    <t>Cam Iron / Marketing Company</t>
-  </si>
-  <si>
-    <t>Convention</t>
-  </si>
-  <si>
-    <t>Offtake Agreement</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Comply with the provisions of the  </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -293,7 +292,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -312,16 +310,13 @@
       <t>(article 17.3)</t>
     </r>
   </si>
-  <si>
-    <t>Treasury Agreement / Monitoring Agreement -Treasury</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -332,18 +327,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -358,22 +346,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -382,91 +370,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -475,57 +388,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +427,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -827,188 +713,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M9"/>
+  <dimension ref="A4:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="156" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="6"/>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="6"/>
+    <row r="7" spans="1:13" ht="160.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="6"/>
     </row>
-    <row r="6" spans="1:13" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="8" spans="1:13" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="13"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" ht="107.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A3:I3"/>
+  <mergeCells count="13">
     <mergeCell ref="L6:L8"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:J4"/>
@@ -1020,9 +882,10 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1033,7 +896,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1045,7 +908,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
